--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3998.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3998.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.364941838622176</v>
+        <v>1.443260550498962</v>
       </c>
       <c r="B1">
-        <v>2.511428089466405</v>
+        <v>3.311005353927612</v>
       </c>
       <c r="C1">
-        <v>3.342779544182451</v>
+        <v>5.392126083374023</v>
       </c>
       <c r="D1">
-        <v>3.906769176325077</v>
+        <v>7.282094955444336</v>
       </c>
       <c r="E1">
-        <v>1.795337741313011</v>
+        <v>1.001720786094666</v>
       </c>
     </row>
   </sheetData>
